--- a/biology/Botanique/Picrodendraceae/Picrodendraceae.xlsx
+++ b/biology/Botanique/Picrodendraceae/Picrodendraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Picrodendraceae (les Picrodendracées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales qui comprend 14 à 27 genres.
 Ce sont des arbres et arbustes des régions subtropicales à tropicales que l'on rencontre en Nouvelle-Guinée, Australie, Nouvelle-Calédonie, Madagascar, Afrique et Amérique.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Picrodendron dérivé du grec πικρός / pikros, amer, et δένδρο / déndro, arbre.
 </t>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la classification de Cronquist, cette famille n’existait pas et, classiquement, ces plantes étaient  incluses dans les Euphorbiacées (lato sensu).
 Elle rassemble des espèces qui formaient les Androstachydaceae, les Micrantheaceae et les Pseudanthaceae. 
-La classification phylogénétique APG III (2009)[1] y a inclus les 24 genres des  Oldfieldioideae (sous famille des Euphorbiaceae)[2].
+La classification phylogénétique APG III (2009) y a inclus les 24 genres des  Oldfieldioideae (sous famille des Euphorbiaceae).
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (25 mai 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (25 mai 2010) :
 Androstachys Prain (1908)
 Aristogeitonia Prain (1908)
 Austrobuxus Miq., Fl. Ned. Ind. (1861)
@@ -604,7 +622,7 @@
 Tetracoccus Engelm. ex Parry (1885)
 Voatamalo Capuron ex Bosser, Adansonia, n.s. (1975 publ. 1976)
 Whyanbeelia Airy Shaw &amp; B.Hyland (1976)
-Selon Angiosperm Phylogeny Website                        (25 mai 2010)[4] :
+Selon Angiosperm Phylogeny Website                        (25 mai 2010) :
 Androstachys
 Aristogeitonia
 Austrobuxus
@@ -632,7 +650,7 @@
 Tetracoccus
 Voatamalo
 Whyanbeelia
-Selon NCBI  (25 mai 2010)[5] :
+Selon NCBI  (25 mai 2010) :
 Androstachys
 Aristogeitonia
 Austrobuxus
@@ -675,9 +693,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (25 mai 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (25 mai 2010) :
 Androstachys
 Androstachys johnsonii
 Aristogeitonia
@@ -711,7 +731,7 @@
 Stachystemon axillaris
 Tetracoccus
 Tetracoccus dioicus
-Selon NCBI  (25 mai 2010)[5] :
+Selon NCBI  (25 mai 2010) :
 genre Androstachys
 Androstachys johnsonii
 genre Aristogeitonia
